--- a/data/trans_orig/P57B5_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P57B5_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{96A5CBD7-9EBF-4C8F-9170-F25E742BD55F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1390562C-1480-4205-9D48-47605958D642}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1CF56176-CCC7-49CB-802E-1C91D8078799}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{38EDDAF8-EFD4-4B53-AAB2-8B3911A586B7}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="160">
   <si>
     <t>Población según se ha sentido rebosante de energía en 2023 (Tasa respuesta: 99,63%)</t>
   </si>
@@ -77,25 +77,25 @@
     <t>22,01%</t>
   </si>
   <si>
-    <t>29,15%</t>
+    <t>29,3%</t>
   </si>
   <si>
     <t>17,63%</t>
   </si>
   <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
   </si>
   <si>
     <t>20,74%</t>
   </si>
   <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
   </si>
   <si>
     <t>Buena parte del tiempo</t>
@@ -104,28 +104,28 @@
     <t>38,69%</t>
   </si>
   <si>
-    <t>34,83%</t>
-  </si>
-  <si>
-    <t>42,71%</t>
+    <t>34,65%</t>
+  </si>
+  <si>
+    <t>42,67%</t>
   </si>
   <si>
     <t>35,36%</t>
   </si>
   <si>
-    <t>32,96%</t>
-  </si>
-  <si>
-    <t>38,07%</t>
+    <t>32,72%</t>
+  </si>
+  <si>
+    <t>38,02%</t>
   </si>
   <si>
     <t>36,67%</t>
   </si>
   <si>
-    <t>34,62%</t>
-  </si>
-  <si>
-    <t>39,03%</t>
+    <t>34,25%</t>
+  </si>
+  <si>
+    <t>38,97%</t>
   </si>
   <si>
     <t>En algún momento</t>
@@ -134,28 +134,28 @@
     <t>26,15%</t>
   </si>
   <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>29,75%</t>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>29,61%</t>
   </si>
   <si>
     <t>30,16%</t>
   </si>
   <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>32,75%</t>
   </si>
   <si>
     <t>28,58%</t>
   </si>
   <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>30,66%</t>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
   </si>
   <si>
     <t>En ningún momento o en casi ningún momento</t>
@@ -164,361 +164,355 @@
     <t>9,62%</t>
   </si>
   <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
   </si>
   <si>
     <t>16,85%</t>
   </si>
   <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
   </si>
   <si>
     <t>14,01%</t>
   </si>
   <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>45,64%</t>
+  </si>
+  <si>
+    <t>42,96%</t>
+  </si>
+  <si>
+    <t>49,97%</t>
+  </si>
+  <si>
+    <t>32,98%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>35,7%</t>
+  </si>
+  <si>
+    <t>39,18%</t>
+  </si>
+  <si>
+    <t>36,23%</t>
+  </si>
+  <si>
+    <t>41,79%</t>
+  </si>
+  <si>
+    <t>37,41%</t>
+  </si>
+  <si>
+    <t>34,09%</t>
+  </si>
+  <si>
+    <t>40,14%</t>
+  </si>
+  <si>
+    <t>46,26%</t>
+  </si>
+  <si>
+    <t>42,76%</t>
+  </si>
+  <si>
+    <t>55,97%</t>
+  </si>
+  <si>
+    <t>41,93%</t>
+  </si>
+  <si>
+    <t>39,51%</t>
+  </si>
+  <si>
+    <t>46,63%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>41,59%</t>
+  </si>
+  <si>
+    <t>37,52%</t>
+  </si>
+  <si>
+    <t>45,85%</t>
+  </si>
+  <si>
+    <t>36,6%</t>
+  </si>
+  <si>
+    <t>33,28%</t>
+  </si>
+  <si>
+    <t>40,18%</t>
+  </si>
+  <si>
+    <t>39,02%</t>
+  </si>
+  <si>
+    <t>36,3%</t>
+  </si>
+  <si>
+    <t>41,8%</t>
+  </si>
+  <si>
+    <t>41,47%</t>
+  </si>
+  <si>
+    <t>37,24%</t>
+  </si>
+  <si>
+    <t>45,31%</t>
+  </si>
+  <si>
+    <t>43,89%</t>
+  </si>
+  <si>
+    <t>40,65%</t>
+  </si>
+  <si>
+    <t>47,27%</t>
+  </si>
+  <si>
+    <t>42,72%</t>
+  </si>
+  <si>
+    <t>40,2%</t>
+  </si>
+  <si>
+    <t>45,3%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
     <t>12,54%</t>
   </si>
   <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>45,64%</t>
-  </si>
-  <si>
-    <t>42,94%</t>
-  </si>
-  <si>
-    <t>50,16%</t>
-  </si>
-  <si>
-    <t>32,98%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>35,69%</t>
-  </si>
-  <si>
-    <t>39,18%</t>
-  </si>
-  <si>
-    <t>36,09%</t>
-  </si>
-  <si>
-    <t>41,77%</t>
-  </si>
-  <si>
-    <t>37,41%</t>
-  </si>
-  <si>
-    <t>33,75%</t>
-  </si>
-  <si>
-    <t>39,86%</t>
-  </si>
-  <si>
-    <t>46,26%</t>
-  </si>
-  <si>
-    <t>42,69%</t>
-  </si>
-  <si>
-    <t>54,4%</t>
-  </si>
-  <si>
-    <t>41,93%</t>
-  </si>
-  <si>
-    <t>39,6%</t>
-  </si>
-  <si>
-    <t>47,45%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>41,59%</t>
-  </si>
-  <si>
-    <t>37,82%</t>
-  </si>
-  <si>
-    <t>46,31%</t>
-  </si>
-  <si>
-    <t>36,6%</t>
-  </si>
-  <si>
-    <t>33,29%</t>
-  </si>
-  <si>
-    <t>40,1%</t>
-  </si>
-  <si>
-    <t>39,02%</t>
-  </si>
-  <si>
-    <t>36,31%</t>
-  </si>
-  <si>
-    <t>41,46%</t>
-  </si>
-  <si>
-    <t>41,47%</t>
-  </si>
-  <si>
-    <t>37,05%</t>
-  </si>
-  <si>
-    <t>45,37%</t>
-  </si>
-  <si>
-    <t>43,89%</t>
-  </si>
-  <si>
-    <t>40,67%</t>
-  </si>
-  <si>
-    <t>47,24%</t>
-  </si>
-  <si>
-    <t>42,72%</t>
-  </si>
-  <si>
-    <t>40,28%</t>
-  </si>
-  <si>
-    <t>45,44%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
+    <t>16,07%</t>
   </si>
   <si>
     <t>3,96%</t>
   </si>
   <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
   </si>
   <si>
     <t>4,2%</t>
   </si>
   <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
   </si>
   <si>
     <t>4,08%</t>
   </si>
   <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
   </si>
   <si>
     <t>41,63%</t>
   </si>
   <si>
-    <t>39,68%</t>
-  </si>
-  <si>
-    <t>44,63%</t>
+    <t>39,55%</t>
+  </si>
+  <si>
+    <t>44,83%</t>
   </si>
   <si>
     <t>30,3%</t>
   </si>
   <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>31,99%</t>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>31,97%</t>
   </si>
   <si>
     <t>35,63%</t>
   </si>
   <si>
-    <t>33,7%</t>
-  </si>
-  <si>
-    <t>37,31%</t>
+    <t>33,8%</t>
+  </si>
+  <si>
+    <t>37,32%</t>
   </si>
   <si>
     <t>38,43%</t>
   </si>
   <si>
-    <t>36,37%</t>
-  </si>
-  <si>
-    <t>40,52%</t>
+    <t>35,97%</t>
+  </si>
+  <si>
+    <t>40,43%</t>
   </si>
   <si>
     <t>43,43%</t>
   </si>
   <si>
-    <t>41,02%</t>
-  </si>
-  <si>
-    <t>49,31%</t>
-  </si>
-  <si>
     <t>41,08%</t>
   </si>
   <si>
+    <t>49,63%</t>
+  </si>
+  <si>
     <t>39,58%</t>
   </si>
   <si>
-    <t>44,46%</t>
+    <t>44,02%</t>
   </si>
   <si>
     <t>15,83%</t>
   </si>
   <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
   </si>
   <si>
     <t>19,76%</t>
   </si>
   <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
   </si>
   <si>
     <t>17,91%</t>
   </si>
   <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
   </si>
   <si>
     <t>4,11%</t>
   </si>
   <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
   </si>
   <si>
     <t>6,5%</t>
   </si>
   <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
   </si>
   <si>
     <t>5,38%</t>
   </si>
   <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -933,7 +927,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F0AD35B-2E77-45B0-B933-CE0EB299449C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{891226C0-29AB-4DC7-99A6-EF7BD9F08437}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1326,7 +1320,7 @@
         <v>871</v>
       </c>
       <c r="I9" s="7">
-        <v>740742</v>
+        <v>740741</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>55</v>
@@ -1377,7 +1371,7 @@
         <v>1281</v>
       </c>
       <c r="I10" s="7">
-        <v>1039097</v>
+        <v>1039096</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>64</v>
@@ -1530,7 +1524,7 @@
         <v>2916</v>
       </c>
       <c r="I13" s="7">
-        <v>2246064</v>
+        <v>2246063</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>50</v>
@@ -1703,13 +1697,13 @@
         <v>196700</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1724,13 +1718,13 @@
         <v>26634</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>40</v>
@@ -1739,13 +1733,13 @@
         <v>29956</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>62</v>
@@ -1754,13 +1748,13 @@
         <v>56590</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1828,13 +1822,13 @@
         <v>1402592</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H19" s="7">
         <v>1420</v>
@@ -1843,13 +1837,13 @@
         <v>1148162</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M19" s="7">
         <v>2605</v>
@@ -1858,13 +1852,13 @@
         <v>2550754</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1879,13 +1873,13 @@
         <v>1294788</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H20" s="7">
         <v>2252</v>
@@ -1894,13 +1888,13 @@
         <v>1645620</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M20" s="7">
         <v>3626</v>
@@ -1909,13 +1903,13 @@
         <v>2940408</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1930,13 +1924,13 @@
         <v>533488</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H21" s="7">
         <v>1260</v>
@@ -1945,13 +1939,13 @@
         <v>748848</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M21" s="7">
         <v>1899</v>
@@ -1960,13 +1954,13 @@
         <v>1282335</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1981,13 +1975,13 @@
         <v>138651</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H22" s="7">
         <v>403</v>
@@ -1996,13 +1990,13 @@
         <v>246459</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M22" s="7">
         <v>559</v>
@@ -2011,13 +2005,13 @@
         <v>385110</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2073,7 +2067,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P57B5_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P57B5_2023-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1390562C-1480-4205-9D48-47605958D642}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F55E1DE9-9D11-4EC4-A130-BB847DF84A28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{38EDDAF8-EFD4-4B53-AAB2-8B3911A586B7}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{843BDADF-801A-4EFF-AA4D-D8F0E87736C8}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -927,7 +927,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{891226C0-29AB-4DC7-99A6-EF7BD9F08437}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBD4AF01-3379-46D6-808C-9FE6B8FDD4C1}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P57B5_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P57B5_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F55E1DE9-9D11-4EC4-A130-BB847DF84A28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9580F38F-CEA5-4B33-AF91-BE8EF10F4A8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{843BDADF-801A-4EFF-AA4D-D8F0E87736C8}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8C7E42C0-4210-4E0A-A930-64464F84CAD5}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="162">
   <si>
     <t>Población según se ha sentido rebosante de energía en 2023 (Tasa respuesta: 99,63%)</t>
   </si>
@@ -77,25 +77,25 @@
     <t>22,01%</t>
   </si>
   <si>
-    <t>29,3%</t>
+    <t>29,15%</t>
   </si>
   <si>
     <t>17,63%</t>
   </si>
   <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
   </si>
   <si>
     <t>20,74%</t>
   </si>
   <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
   </si>
   <si>
     <t>Buena parte del tiempo</t>
@@ -104,28 +104,28 @@
     <t>38,69%</t>
   </si>
   <si>
-    <t>34,65%</t>
-  </si>
-  <si>
-    <t>42,67%</t>
+    <t>34,83%</t>
+  </si>
+  <si>
+    <t>42,71%</t>
   </si>
   <si>
     <t>35,36%</t>
   </si>
   <si>
-    <t>32,72%</t>
-  </si>
-  <si>
-    <t>38,02%</t>
+    <t>32,96%</t>
+  </si>
+  <si>
+    <t>38,07%</t>
   </si>
   <si>
     <t>36,67%</t>
   </si>
   <si>
-    <t>34,25%</t>
-  </si>
-  <si>
-    <t>38,97%</t>
+    <t>34,62%</t>
+  </si>
+  <si>
+    <t>39,03%</t>
   </si>
   <si>
     <t>En algún momento</t>
@@ -134,28 +134,28 @@
     <t>26,15%</t>
   </si>
   <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>29,61%</t>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>29,75%</t>
   </si>
   <si>
     <t>30,16%</t>
   </si>
   <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>32,75%</t>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>32,62%</t>
   </si>
   <si>
     <t>28,58%</t>
   </si>
   <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>30,78%</t>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>30,66%</t>
   </si>
   <si>
     <t>En ningún momento o en casi ningún momento</t>
@@ -164,28 +164,28 @@
     <t>9,62%</t>
   </si>
   <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
   </si>
   <si>
     <t>16,85%</t>
   </si>
   <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
   </si>
   <si>
     <t>14,01%</t>
   </si>
   <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
   </si>
   <si>
     <t>100%</t>
@@ -197,322 +197,328 @@
     <t>45,64%</t>
   </si>
   <si>
-    <t>42,96%</t>
-  </si>
-  <si>
-    <t>49,97%</t>
+    <t>42,94%</t>
+  </si>
+  <si>
+    <t>50,16%</t>
   </si>
   <si>
     <t>32,98%</t>
   </si>
   <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>35,7%</t>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>35,69%</t>
   </si>
   <si>
     <t>39,18%</t>
   </si>
   <si>
-    <t>36,23%</t>
-  </si>
-  <si>
-    <t>41,79%</t>
+    <t>36,09%</t>
+  </si>
+  <si>
+    <t>41,77%</t>
   </si>
   <si>
     <t>37,41%</t>
   </si>
   <si>
-    <t>34,09%</t>
-  </si>
-  <si>
-    <t>40,14%</t>
+    <t>33,75%</t>
+  </si>
+  <si>
+    <t>39,86%</t>
   </si>
   <si>
     <t>46,26%</t>
   </si>
   <si>
-    <t>42,76%</t>
-  </si>
-  <si>
-    <t>55,97%</t>
+    <t>42,69%</t>
+  </si>
+  <si>
+    <t>54,4%</t>
   </si>
   <si>
     <t>41,93%</t>
   </si>
   <si>
-    <t>39,51%</t>
-  </si>
-  <si>
-    <t>46,63%</t>
+    <t>39,6%</t>
+  </si>
+  <si>
+    <t>47,45%</t>
   </si>
   <si>
     <t>14,15%</t>
   </si>
   <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
   </si>
   <si>
     <t>17,34%</t>
   </si>
   <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
   </si>
   <si>
     <t>15,78%</t>
   </si>
   <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>41,59%</t>
+  </si>
+  <si>
+    <t>37,82%</t>
+  </si>
+  <si>
+    <t>46,31%</t>
+  </si>
+  <si>
+    <t>36,6%</t>
+  </si>
+  <si>
+    <t>33,29%</t>
+  </si>
+  <si>
+    <t>40,1%</t>
+  </si>
+  <si>
+    <t>39,02%</t>
+  </si>
+  <si>
+    <t>36,31%</t>
+  </si>
+  <si>
+    <t>41,46%</t>
+  </si>
+  <si>
+    <t>41,47%</t>
+  </si>
+  <si>
+    <t>37,05%</t>
+  </si>
+  <si>
+    <t>45,37%</t>
+  </si>
+  <si>
+    <t>43,89%</t>
+  </si>
+  <si>
+    <t>40,67%</t>
+  </si>
+  <si>
+    <t>47,24%</t>
+  </si>
+  <si>
+    <t>42,72%</t>
+  </si>
+  <si>
+    <t>40,28%</t>
+  </si>
+  <si>
+    <t>45,44%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
     <t>14,18%</t>
   </si>
   <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>41,59%</t>
-  </si>
-  <si>
-    <t>37,52%</t>
-  </si>
-  <si>
-    <t>45,85%</t>
-  </si>
-  <si>
-    <t>36,6%</t>
-  </si>
-  <si>
-    <t>33,28%</t>
-  </si>
-  <si>
-    <t>40,18%</t>
-  </si>
-  <si>
-    <t>39,02%</t>
-  </si>
-  <si>
-    <t>36,3%</t>
-  </si>
-  <si>
-    <t>41,8%</t>
-  </si>
-  <si>
-    <t>41,47%</t>
-  </si>
-  <si>
-    <t>37,24%</t>
-  </si>
-  <si>
-    <t>45,31%</t>
-  </si>
-  <si>
-    <t>43,89%</t>
-  </si>
-  <si>
-    <t>40,65%</t>
-  </si>
-  <si>
-    <t>47,27%</t>
-  </si>
-  <si>
-    <t>42,72%</t>
-  </si>
-  <si>
-    <t>40,2%</t>
-  </si>
-  <si>
-    <t>45,3%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
   </si>
   <si>
     <t>3,96%</t>
   </si>
   <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
   </si>
   <si>
     <t>4,2%</t>
   </si>
   <si>
-    <t>2,97%</t>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>41,63%</t>
+  </si>
+  <si>
+    <t>39,68%</t>
+  </si>
+  <si>
+    <t>44,63%</t>
+  </si>
+  <si>
+    <t>30,3%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
+  </si>
+  <si>
+    <t>35,63%</t>
+  </si>
+  <si>
+    <t>33,7%</t>
+  </si>
+  <si>
+    <t>37,31%</t>
+  </si>
+  <si>
+    <t>38,43%</t>
+  </si>
+  <si>
+    <t>36,37%</t>
+  </si>
+  <si>
+    <t>40,52%</t>
+  </si>
+  <si>
+    <t>43,43%</t>
+  </si>
+  <si>
+    <t>41,02%</t>
+  </si>
+  <si>
+    <t>49,31%</t>
+  </si>
+  <si>
+    <t>41,08%</t>
+  </si>
+  <si>
+    <t>39,58%</t>
+  </si>
+  <si>
+    <t>44,46%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
   </si>
   <si>
     <t>5,72%</t>
   </si>
   <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>41,63%</t>
-  </si>
-  <si>
-    <t>39,55%</t>
-  </si>
-  <si>
-    <t>44,83%</t>
-  </si>
-  <si>
-    <t>30,3%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>31,97%</t>
-  </si>
-  <si>
-    <t>35,63%</t>
-  </si>
-  <si>
-    <t>33,8%</t>
-  </si>
-  <si>
-    <t>37,32%</t>
-  </si>
-  <si>
-    <t>38,43%</t>
-  </si>
-  <si>
-    <t>35,97%</t>
-  </si>
-  <si>
-    <t>40,43%</t>
-  </si>
-  <si>
-    <t>43,43%</t>
-  </si>
-  <si>
-    <t>41,08%</t>
-  </si>
-  <si>
-    <t>49,63%</t>
-  </si>
-  <si>
-    <t>39,58%</t>
-  </si>
-  <si>
-    <t>44,02%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
+    <t>7,34%</t>
   </si>
   <si>
     <t>5,38%</t>
   </si>
   <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -927,7 +933,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBD4AF01-3379-46D6-808C-9FE6B8FDD4C1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A517E7AF-E8D8-415C-8561-F256033A56C9}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1320,7 +1326,7 @@
         <v>871</v>
       </c>
       <c r="I9" s="7">
-        <v>740741</v>
+        <v>740742</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>55</v>
@@ -1371,7 +1377,7 @@
         <v>1281</v>
       </c>
       <c r="I10" s="7">
-        <v>1039096</v>
+        <v>1039097</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>64</v>
@@ -1524,7 +1530,7 @@
         <v>2916</v>
       </c>
       <c r="I13" s="7">
-        <v>2246063</v>
+        <v>2246064</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>50</v>
@@ -1697,13 +1703,13 @@
         <v>196700</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1718,13 +1724,13 @@
         <v>26634</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>40</v>
@@ -1733,13 +1739,13 @@
         <v>29956</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>62</v>
@@ -1748,13 +1754,13 @@
         <v>56590</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1822,13 +1828,13 @@
         <v>1402592</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H19" s="7">
         <v>1420</v>
@@ -1837,13 +1843,13 @@
         <v>1148162</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M19" s="7">
         <v>2605</v>
@@ -1852,13 +1858,13 @@
         <v>2550754</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1873,13 +1879,13 @@
         <v>1294788</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H20" s="7">
         <v>2252</v>
@@ -1888,13 +1894,13 @@
         <v>1645620</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M20" s="7">
         <v>3626</v>
@@ -1903,13 +1909,13 @@
         <v>2940408</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1924,13 +1930,13 @@
         <v>533488</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H21" s="7">
         <v>1260</v>
@@ -1939,13 +1945,13 @@
         <v>748848</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M21" s="7">
         <v>1899</v>
@@ -1954,13 +1960,13 @@
         <v>1282335</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1975,13 +1981,13 @@
         <v>138651</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H22" s="7">
         <v>403</v>
@@ -1990,13 +1996,13 @@
         <v>246459</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M22" s="7">
         <v>559</v>
@@ -2005,13 +2011,13 @@
         <v>385110</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2067,7 +2073,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P57B5_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P57B5_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9580F38F-CEA5-4B33-AF91-BE8EF10F4A8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6813E283-4594-4630-9A0E-C189AF4DCC55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8C7E42C0-4210-4E0A-A930-64464F84CAD5}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{FC47D961-31F5-4D14-AD1F-4E4B669230A9}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="159">
   <si>
     <t>Población según se ha sentido rebosante de energía en 2023 (Tasa respuesta: 99,63%)</t>
   </si>
@@ -71,121 +71,121 @@
     <t>Todo o casi todo el tiempo</t>
   </si>
   <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>29,15%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>28,84%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>Buena parte del tiempo</t>
+  </si>
+  <si>
+    <t>39,03%</t>
+  </si>
+  <si>
+    <t>35,25%</t>
+  </si>
+  <si>
+    <t>43,37%</t>
+  </si>
+  <si>
+    <t>35,2%</t>
+  </si>
+  <si>
+    <t>32,93%</t>
+  </si>
+  <si>
+    <t>37,87%</t>
+  </si>
+  <si>
+    <t>36,75%</t>
+  </si>
+  <si>
+    <t>34,68%</t>
+  </si>
+  <si>
+    <t>39,19%</t>
+  </si>
+  <si>
+    <t>En algún momento</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>29,92%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>32,72%</t>
+  </si>
+  <si>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>30,75%</t>
+  </si>
+  <si>
+    <t>En ningún momento o en casi ningún momento</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
   </si>
   <si>
     <t>19,87%</t>
   </si>
   <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>Buena parte del tiempo</t>
-  </si>
-  <si>
-    <t>38,69%</t>
-  </si>
-  <si>
-    <t>34,83%</t>
-  </si>
-  <si>
-    <t>42,71%</t>
-  </si>
-  <si>
-    <t>35,36%</t>
-  </si>
-  <si>
-    <t>32,96%</t>
-  </si>
-  <si>
-    <t>38,07%</t>
-  </si>
-  <si>
-    <t>36,67%</t>
-  </si>
-  <si>
-    <t>34,62%</t>
-  </si>
-  <si>
-    <t>39,03%</t>
-  </si>
-  <si>
-    <t>En algún momento</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>30,16%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
-  </si>
-  <si>
-    <t>28,58%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>30,66%</t>
-  </si>
-  <si>
-    <t>En ningún momento o en casi ningún momento</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
   </si>
   <si>
     <t>100%</t>
@@ -194,331 +194,322 @@
     <t>Secundarios</t>
   </si>
   <si>
-    <t>45,64%</t>
-  </si>
-  <si>
-    <t>42,94%</t>
-  </si>
-  <si>
-    <t>50,16%</t>
-  </si>
-  <si>
-    <t>32,98%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>35,69%</t>
-  </si>
-  <si>
-    <t>39,18%</t>
-  </si>
-  <si>
-    <t>36,09%</t>
-  </si>
-  <si>
-    <t>41,77%</t>
-  </si>
-  <si>
-    <t>37,41%</t>
-  </si>
-  <si>
-    <t>33,75%</t>
-  </si>
-  <si>
-    <t>39,86%</t>
-  </si>
-  <si>
-    <t>46,26%</t>
-  </si>
-  <si>
-    <t>42,69%</t>
-  </si>
-  <si>
-    <t>54,4%</t>
-  </si>
-  <si>
-    <t>41,93%</t>
-  </si>
-  <si>
-    <t>39,6%</t>
-  </si>
-  <si>
-    <t>47,45%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
+    <t>50,25%</t>
+  </si>
+  <si>
+    <t>43,48%</t>
+  </si>
+  <si>
+    <t>67,46%</t>
+  </si>
+  <si>
+    <t>29,77%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>34,07%</t>
+  </si>
+  <si>
+    <t>40,13%</t>
+  </si>
+  <si>
+    <t>35,01%</t>
+  </si>
+  <si>
+    <t>51,63%</t>
+  </si>
+  <si>
+    <t>34,57%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>39,52%</t>
+  </si>
+  <si>
+    <t>50,96%</t>
+  </si>
+  <si>
+    <t>44,31%</t>
+  </si>
+  <si>
+    <t>64,34%</t>
+  </si>
+  <si>
+    <t>42,67%</t>
+  </si>
+  <si>
+    <t>35,79%</t>
+  </si>
+  <si>
+    <t>50,34%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
   </si>
   <si>
     <t>Universitarios</t>
   </si>
   <si>
-    <t>41,59%</t>
-  </si>
-  <si>
-    <t>37,82%</t>
-  </si>
-  <si>
-    <t>46,31%</t>
-  </si>
-  <si>
-    <t>36,6%</t>
-  </si>
-  <si>
-    <t>33,29%</t>
-  </si>
-  <si>
-    <t>40,1%</t>
-  </si>
-  <si>
-    <t>39,02%</t>
-  </si>
-  <si>
-    <t>36,31%</t>
-  </si>
-  <si>
-    <t>41,46%</t>
-  </si>
-  <si>
-    <t>41,47%</t>
-  </si>
-  <si>
-    <t>37,05%</t>
-  </si>
-  <si>
-    <t>45,37%</t>
-  </si>
-  <si>
-    <t>43,89%</t>
-  </si>
-  <si>
-    <t>40,67%</t>
-  </si>
-  <si>
-    <t>47,24%</t>
-  </si>
-  <si>
-    <t>42,72%</t>
-  </si>
-  <si>
-    <t>40,28%</t>
-  </si>
-  <si>
-    <t>45,44%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>41,63%</t>
-  </si>
-  <si>
-    <t>39,68%</t>
-  </si>
-  <si>
-    <t>44,63%</t>
-  </si>
-  <si>
-    <t>30,3%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>31,99%</t>
-  </si>
-  <si>
-    <t>35,63%</t>
-  </si>
-  <si>
-    <t>33,7%</t>
-  </si>
-  <si>
-    <t>37,31%</t>
-  </si>
-  <si>
-    <t>38,43%</t>
-  </si>
-  <si>
-    <t>36,37%</t>
-  </si>
-  <si>
-    <t>40,52%</t>
-  </si>
-  <si>
-    <t>43,43%</t>
-  </si>
-  <si>
-    <t>41,02%</t>
-  </si>
-  <si>
-    <t>49,31%</t>
-  </si>
-  <si>
-    <t>41,08%</t>
-  </si>
-  <si>
-    <t>39,58%</t>
-  </si>
-  <si>
-    <t>44,46%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
+    <t>41,51%</t>
+  </si>
+  <si>
+    <t>37,6%</t>
+  </si>
+  <si>
+    <t>46,54%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
+  </si>
+  <si>
+    <t>39,12%</t>
+  </si>
+  <si>
+    <t>38,62%</t>
+  </si>
+  <si>
+    <t>35,9%</t>
+  </si>
+  <si>
+    <t>41,25%</t>
+  </si>
+  <si>
+    <t>41,48%</t>
+  </si>
+  <si>
+    <t>36,72%</t>
+  </si>
+  <si>
+    <t>45,45%</t>
+  </si>
+  <si>
+    <t>44,55%</t>
+  </si>
+  <si>
+    <t>41,24%</t>
+  </si>
+  <si>
+    <t>47,87%</t>
+  </si>
+  <si>
+    <t>43,03%</t>
+  </si>
+  <si>
+    <t>40,56%</t>
+  </si>
+  <si>
+    <t>45,86%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>44,89%</t>
+  </si>
+  <si>
+    <t>57,72%</t>
+  </si>
+  <si>
+    <t>28,37%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>36,4%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>43,3%</t>
+  </si>
+  <si>
+    <t>36,53%</t>
+  </si>
+  <si>
+    <t>28,56%</t>
+  </si>
+  <si>
+    <t>39,99%</t>
+  </si>
+  <si>
+    <t>46,56%</t>
+  </si>
+  <si>
+    <t>42,17%</t>
+  </si>
+  <si>
+    <t>56,54%</t>
+  </si>
+  <si>
+    <t>41,69%</t>
+  </si>
+  <si>
+    <t>37,89%</t>
+  </si>
+  <si>
+    <t>46,69%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -933,7 +924,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A517E7AF-E8D8-415C-8561-F256033A56C9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E64A527-7005-4B8C-AC53-CFC16171AD06}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1054,7 +1045,7 @@
         <v>154</v>
       </c>
       <c r="D4" s="7">
-        <v>137178</v>
+        <v>128285</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1069,7 +1060,7 @@
         <v>225</v>
       </c>
       <c r="I4" s="7">
-        <v>146156</v>
+        <v>132365</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1084,7 +1075,7 @@
         <v>379</v>
       </c>
       <c r="N4" s="7">
-        <v>283334</v>
+        <v>260650</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1105,7 +1096,7 @@
         <v>266</v>
       </c>
       <c r="D5" s="7">
-        <v>207786</v>
+        <v>199276</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1120,7 +1111,7 @@
         <v>503</v>
       </c>
       <c r="I5" s="7">
-        <v>293168</v>
+        <v>263797</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1135,7 +1126,7 @@
         <v>769</v>
       </c>
       <c r="N5" s="7">
-        <v>500953</v>
+        <v>463073</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1156,7 +1147,7 @@
         <v>194</v>
       </c>
       <c r="D6" s="7">
-        <v>140448</v>
+        <v>134231</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1171,7 +1162,7 @@
         <v>441</v>
       </c>
       <c r="I6" s="7">
-        <v>250067</v>
+        <v>226858</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1186,7 +1177,7 @@
         <v>635</v>
       </c>
       <c r="N6" s="7">
-        <v>390516</v>
+        <v>361089</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -1207,7 +1198,7 @@
         <v>71</v>
       </c>
       <c r="D7" s="7">
-        <v>51672</v>
+        <v>48809</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>41</v>
@@ -1222,7 +1213,7 @@
         <v>246</v>
       </c>
       <c r="I7" s="7">
-        <v>139747</v>
+        <v>126398</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>44</v>
@@ -1237,7 +1228,7 @@
         <v>317</v>
       </c>
       <c r="N7" s="7">
-        <v>191419</v>
+        <v>175208</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>47</v>
@@ -1258,7 +1249,7 @@
         <v>685</v>
       </c>
       <c r="D8" s="7">
-        <v>537084</v>
+        <v>510602</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>50</v>
@@ -1273,7 +1264,7 @@
         <v>1415</v>
       </c>
       <c r="I8" s="7">
-        <v>829139</v>
+        <v>749418</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>50</v>
@@ -1288,7 +1279,7 @@
         <v>2100</v>
       </c>
       <c r="N8" s="7">
-        <v>1366222</v>
+        <v>1260020</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>50</v>
@@ -1311,7 +1302,7 @@
         <v>776</v>
       </c>
       <c r="D9" s="7">
-        <v>985481</v>
+        <v>1149707</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>52</v>
@@ -1326,7 +1317,7 @@
         <v>871</v>
       </c>
       <c r="I9" s="7">
-        <v>740742</v>
+        <v>665193</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>55</v>
@@ -1341,7 +1332,7 @@
         <v>1647</v>
       </c>
       <c r="N9" s="7">
-        <v>1726223</v>
+        <v>1814900</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>58</v>
@@ -1362,7 +1353,7 @@
         <v>806</v>
       </c>
       <c r="D10" s="7">
-        <v>807920</v>
+        <v>790978</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>61</v>
@@ -1377,7 +1368,7 @@
         <v>1281</v>
       </c>
       <c r="I10" s="7">
-        <v>1039097</v>
+        <v>1138853</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>64</v>
@@ -1392,7 +1383,7 @@
         <v>2087</v>
       </c>
       <c r="N10" s="7">
-        <v>1847016</v>
+        <v>1929832</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>67</v>
@@ -1413,7 +1404,7 @@
         <v>343</v>
       </c>
       <c r="D11" s="7">
-        <v>305650</v>
+        <v>290575</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>70</v>
@@ -1428,7 +1419,7 @@
         <v>647</v>
       </c>
       <c r="I11" s="7">
-        <v>389470</v>
+        <v>360035</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>73</v>
@@ -1443,7 +1434,7 @@
         <v>990</v>
       </c>
       <c r="N11" s="7">
-        <v>695120</v>
+        <v>650610</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>76</v>
@@ -1464,7 +1455,7 @@
         <v>63</v>
       </c>
       <c r="D12" s="7">
-        <v>60345</v>
+        <v>56647</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>79</v>
@@ -1479,7 +1470,7 @@
         <v>117</v>
       </c>
       <c r="I12" s="7">
-        <v>76756</v>
+        <v>70541</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>82</v>
@@ -1494,7 +1485,7 @@
         <v>180</v>
       </c>
       <c r="N12" s="7">
-        <v>137101</v>
+        <v>127188</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>85</v>
@@ -1515,7 +1506,7 @@
         <v>1988</v>
       </c>
       <c r="D13" s="7">
-        <v>2159397</v>
+        <v>2287907</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>50</v>
@@ -1530,7 +1521,7 @@
         <v>2916</v>
       </c>
       <c r="I13" s="7">
-        <v>2246064</v>
+        <v>2234623</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>50</v>
@@ -1545,7 +1536,7 @@
         <v>4904</v>
       </c>
       <c r="N13" s="7">
-        <v>4405460</v>
+        <v>4522530</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>50</v>
@@ -1568,7 +1559,7 @@
         <v>255</v>
       </c>
       <c r="D14" s="7">
-        <v>279933</v>
+        <v>268403</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>89</v>
@@ -1583,31 +1574,31 @@
         <v>324</v>
       </c>
       <c r="I14" s="7">
-        <v>261264</v>
+        <v>236409</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>579</v>
       </c>
       <c r="N14" s="7">
-        <v>541197</v>
+        <v>504812</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1619,46 +1610,46 @@
         <v>302</v>
       </c>
       <c r="D15" s="7">
-        <v>279083</v>
+        <v>268232</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H15" s="7">
         <v>468</v>
       </c>
       <c r="I15" s="7">
-        <v>313356</v>
+        <v>294262</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M15" s="7">
         <v>770</v>
       </c>
       <c r="N15" s="7">
-        <v>592439</v>
+        <v>562494</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1670,46 +1661,46 @@
         <v>102</v>
       </c>
       <c r="D16" s="7">
-        <v>87389</v>
+        <v>83971</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>172</v>
       </c>
       <c r="I16" s="7">
-        <v>109310</v>
+        <v>101852</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>274</v>
       </c>
       <c r="N16" s="7">
-        <v>196700</v>
+        <v>185823</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1721,46 +1712,46 @@
         <v>22</v>
       </c>
       <c r="D17" s="7">
-        <v>26634</v>
+        <v>26016</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>40</v>
       </c>
       <c r="I17" s="7">
-        <v>29956</v>
+        <v>27941</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>62</v>
       </c>
       <c r="N17" s="7">
-        <v>56590</v>
+        <v>53957</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1772,7 +1763,7 @@
         <v>681</v>
       </c>
       <c r="D18" s="7">
-        <v>673039</v>
+        <v>646623</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>50</v>
@@ -1787,7 +1778,7 @@
         <v>1004</v>
       </c>
       <c r="I18" s="7">
-        <v>713886</v>
+        <v>660463</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>50</v>
@@ -1802,7 +1793,7 @@
         <v>1685</v>
       </c>
       <c r="N18" s="7">
-        <v>1386926</v>
+        <v>1307086</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>50</v>
@@ -1825,46 +1816,46 @@
         <v>1185</v>
       </c>
       <c r="D19" s="7">
-        <v>1402592</v>
+        <v>1546395</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H19" s="7">
         <v>1420</v>
       </c>
       <c r="I19" s="7">
-        <v>1148162</v>
+        <v>1033967</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M19" s="7">
         <v>2605</v>
       </c>
       <c r="N19" s="7">
-        <v>2550754</v>
+        <v>2580362</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1876,46 +1867,46 @@
         <v>1374</v>
       </c>
       <c r="D20" s="7">
-        <v>1294788</v>
+        <v>1258487</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H20" s="7">
         <v>2252</v>
       </c>
       <c r="I20" s="7">
-        <v>1645620</v>
+        <v>1696912</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M20" s="7">
         <v>3626</v>
       </c>
       <c r="N20" s="7">
-        <v>2940408</v>
+        <v>2955399</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1927,46 +1918,46 @@
         <v>639</v>
       </c>
       <c r="D21" s="7">
-        <v>533488</v>
+        <v>508777</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H21" s="7">
         <v>1260</v>
       </c>
       <c r="I21" s="7">
-        <v>748848</v>
+        <v>688745</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M21" s="7">
         <v>1899</v>
       </c>
       <c r="N21" s="7">
-        <v>1282335</v>
+        <v>1197522</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1978,46 +1969,46 @@
         <v>156</v>
       </c>
       <c r="D22" s="7">
-        <v>138651</v>
+        <v>131473</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H22" s="7">
         <v>403</v>
       </c>
       <c r="I22" s="7">
-        <v>246459</v>
+        <v>224880</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M22" s="7">
         <v>559</v>
       </c>
       <c r="N22" s="7">
-        <v>385110</v>
+        <v>356353</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2029,7 +2020,7 @@
         <v>3354</v>
       </c>
       <c r="D23" s="7">
-        <v>3369520</v>
+        <v>3445132</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>50</v>
@@ -2044,7 +2035,7 @@
         <v>5335</v>
       </c>
       <c r="I23" s="7">
-        <v>3789088</v>
+        <v>3644504</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>50</v>
@@ -2059,7 +2050,7 @@
         <v>8689</v>
       </c>
       <c r="N23" s="7">
-        <v>7158608</v>
+        <v>7089637</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>50</v>
@@ -2073,7 +2064,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
